--- a/data_impute_project/data/terrestrial_herbivorous_mammals.xlsx
+++ b/data_impute_project/data/terrestrial_herbivorous_mammals.xlsx
@@ -436,57 +436,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>diet</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>δ13C coll</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>δ15N coll</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>δ13C carb</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>δ18O carb</t>
+          <t>I</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>δ18O phos</t>
+          <t>J</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>δ34S coll</t>
+          <t>K</t>
         </is>
       </c>
     </row>

--- a/data_impute_project/data/terrestrial_herbivorous_mammals.xlsx
+++ b/data_impute_project/data/terrestrial_herbivorous_mammals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +489,11 @@
       <c r="F2" t="n">
         <v>9.94</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hb 47</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -502,6 +512,11 @@
         <v>17.78</v>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hb 48</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -520,6 +535,11 @@
         <v>17.28</v>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>S 6</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -538,6 +558,11 @@
         <v>16.54</v>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hb 7</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -556,6 +581,11 @@
         <v>17.64</v>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hb 46</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -574,6 +604,11 @@
         <v>15.84</v>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hb 1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -594,6 +629,11 @@
       <c r="F8" t="n">
         <v>9.970000000000001</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hb 2</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -614,6 +654,11 @@
       <c r="F9" t="n">
         <v>15.05</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hb 3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +677,11 @@
         <v>16.47</v>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hb 5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +702,11 @@
       <c r="F11" t="n">
         <v>14.65</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>S 24</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -670,6 +725,11 @@
         <v>16.67</v>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>S 25</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -688,6 +748,11 @@
         <v>14.68</v>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>S 26</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -706,6 +771,11 @@
         <v>15.63</v>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>S 27</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -726,6 +796,11 @@
       <c r="F15" t="n">
         <v>14.77</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>S 28</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -744,6 +819,11 @@
         <v>16.64</v>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>S 29</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -762,6 +842,11 @@
         <v>16.52</v>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>S 30</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -780,6 +865,11 @@
         <v>16.85</v>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hb 83</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -798,6 +888,11 @@
         <v>16.03</v>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hb 84</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -816,6 +911,11 @@
         <v>17.05</v>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hb 85</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -834,6 +934,11 @@
         <v>17.41</v>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hb 86</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -852,6 +957,11 @@
         <v>16.49</v>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hb 87</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -870,6 +980,11 @@
         <v>16.71</v>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hb 88</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -888,6 +1003,11 @@
         <v>17.2</v>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hb 89</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -906,6 +1026,11 @@
         <v>17.44</v>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hb 90</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -924,6 +1049,11 @@
         <v>18.53</v>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hb 91</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -944,6 +1074,11 @@
       <c r="F27" t="n">
         <v>12.97</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hb 92</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -964,6 +1099,11 @@
       <c r="F28" t="n">
         <v>12.33</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hb 40</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -984,6 +1124,11 @@
       <c r="F29" t="n">
         <v>13.95</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hb 41</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1002,6 +1147,11 @@
         <v>16.41</v>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hb 42</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1020,6 +1170,11 @@
         <v>16.91</v>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hb 43</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1038,6 +1193,11 @@
         <v>16.47</v>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>S 8</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1056,6 +1216,11 @@
         <v>16.4</v>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>S 9</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1076,6 +1241,11 @@
       <c r="F34" t="n">
         <v>10.77</v>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>S 11</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1094,6 +1264,11 @@
         <v>16.65</v>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>S 12</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1112,6 +1287,11 @@
         <v>16.71</v>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hb 53</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1130,6 +1310,11 @@
         <v>16.88</v>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hb 54</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1148,6 +1333,11 @@
         <v>17.18</v>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hb 55</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1166,6 +1356,11 @@
         <v>17.07</v>
       </c>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hb 56</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1186,6 +1381,11 @@
       <c r="F40" t="n">
         <v>14.11</v>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hb 57</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1204,6 +1404,11 @@
         <v>17.66</v>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hb 58</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1222,6 +1427,11 @@
         <v>17.51</v>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hb 59</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1240,6 +1450,11 @@
         <v>17.62</v>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hb 60</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1258,6 +1473,11 @@
         <v>17.13</v>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hb 61</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1276,6 +1496,11 @@
         <v>17.18</v>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hb 62</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1294,6 +1519,11 @@
         <v>17.6</v>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hb 35</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1312,6 +1542,11 @@
         <v>16.71</v>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hb 36</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1330,6 +1565,11 @@
         <v>16.38</v>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hb 38</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1348,6 +1588,11 @@
         <v>16.54</v>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hb 39</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1366,6 +1611,11 @@
         <v>17.41</v>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>S 1</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1384,6 +1634,11 @@
         <v>17.03</v>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>S 2</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1404,6 +1659,11 @@
       <c r="F52" t="n">
         <v>12.54</v>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>S 3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1422,6 +1682,11 @@
       <c r="F53" t="n">
         <v>13.12</v>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>S 4</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1442,6 +1707,11 @@
       <c r="F54" t="n">
         <v>13.73</v>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>S 5</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1460,6 +1730,11 @@
         <v>19.73</v>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hb 73</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1480,6 +1755,11 @@
       <c r="F56" t="n">
         <v>13.76</v>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hb 74</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1496,6 +1776,11 @@
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hb 75</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1514,6 +1799,11 @@
         <v>19.72</v>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hb 76</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1532,6 +1822,11 @@
         <v>19.64</v>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hb 77</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1550,6 +1845,11 @@
         <v>18.32</v>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hb 78</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1569,6 +1869,11 @@
       </c>
       <c r="F61" t="n">
         <v>12.2</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hb 79</t>
+        </is>
       </c>
     </row>
   </sheetData>
